--- a/doc/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
+++ b/doc/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
@@ -10,15 +10,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhxp4pBicJ7qCzwyOtRvwAAqmiaWA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="jakFuAtL6B2bZJ5WN22KK5aLrYaaU2wJEW8QS2Z12Uk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -65,6 +65,9 @@
     <t>新規</t>
   </si>
   <si>
+    <t>遷移時のパラメータ名の変更</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
   </si>
   <si>
@@ -96,13 +99,13 @@
     <t>８桁</t>
   </si>
   <si>
-    <t>対象年月</t>
+    <t>年月</t>
   </si>
   <si>
     <t>６桁（YYYYMM)</t>
   </si>
   <si>
-    <t>対象週</t>
+    <t>週</t>
   </si>
   <si>
     <t>１桁</t>
@@ -537,7 +540,7 @@
     <t>※上記のチェック結果を画面上部に表示する。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-3. API「タレント週間出演情報検索」を呼び出す（API情報は別シート_API情報を参照）</t>
+    <t xml:space="preserve">　　2-2-3. API「タレント週間出演情報検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-2-4.【2-2-3】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
@@ -552,7 +555,7 @@
     <t xml:space="preserve"> 2.2 番組名クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-1.番組ID、オンエア日、対象年月、対象週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。</t>
+    <t xml:space="preserve">　　2-2-1.番組ID、オンエア日、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.3 ページングリンククリック時</t>
@@ -568,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -587,11 +590,6 @@
       <name val="游ゴシック"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -599,7 +597,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -777,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -817,6 +814,9 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -826,8 +826,11 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -863,67 +866,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -932,12 +917,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -949,13 +931,10 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -965,19 +944,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,8 +1270,12 @@
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="13">
+        <v>45129.0</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -1319,176 +1296,184 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>1.0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>45043.0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>45129.0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" ht="18.75" customHeight="1"/>
     <row r="31" ht="18.75" customHeight="1"/>
@@ -2505,13 +2490,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2545,21 +2530,25 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="11">
         <v>45043.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="13">
+        <v>45129.0</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -2605,7 +2594,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3363,7 +3352,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3392,8 +3381,8 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="21" t="s">
-        <v>17</v>
+      <c r="B32" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3422,8 +3411,8 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="22"/>
-      <c r="H33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3502,7 +3491,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3531,14 +3520,14 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="C37" s="26" t="s">
         <v>21</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3566,13 +3555,13 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3599,14 +3588,14 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="25" t="s">
-        <v>25</v>
+      <c r="B39" s="27" t="s">
+        <v>26</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>23</v>
+      <c r="C39" s="12" t="s">
+        <v>24</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>26</v>
+      <c r="D39" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3633,14 +3622,14 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="25" t="s">
-        <v>27</v>
+      <c r="B40" s="27" t="s">
+        <v>28</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>23</v>
+      <c r="C40" s="12" t="s">
+        <v>24</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>28</v>
+      <c r="D40" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3668,8 +3657,8 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3696,7 +3685,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -3725,13 +3714,13 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="C43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="21"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3758,12 +3747,12 @@
     <row r="44" ht="33.75" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="C44" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="21"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3790,12 +3779,12 @@
     <row r="45" ht="48.0" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="C45" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="21"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3821,13 +3810,13 @@
     </row>
     <row r="46" ht="38.25" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="29" t="s">
-        <v>36</v>
+      <c r="B46" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3882,14 +3871,14 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -3914,14 +3903,14 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3945,31 +3934,31 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="24" t="s">
+      <c r="B50" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="C50" s="26" t="s">
         <v>43</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="24" t="s">
+      <c r="G50" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="24" t="s">
-        <v>20</v>
+      <c r="H50" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="I50" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K50" s="24" t="s">
-        <v>43</v>
+      <c r="J50" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -3989,14 +3978,14 @@
     </row>
     <row r="51" ht="94.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="29" t="s">
-        <v>46</v>
+      <c r="B51" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -4052,14 +4041,14 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -4083,31 +4072,31 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="24" t="s">
+      <c r="B54" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="C54" s="26" t="s">
         <v>43</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="24" t="s">
+      <c r="G54" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I54" s="24" t="s">
-        <v>20</v>
+      <c r="H54" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="J54" s="24" t="s">
+      <c r="I54" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="24" t="s">
-        <v>43</v>
+      <c r="J54" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -4128,13 +4117,13 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -4163,27 +4152,27 @@
       <c r="A56" s="6"/>
       <c r="B56" s="34"/>
       <c r="C56" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="36" t="s">
         <v>54</v>
       </c>
+      <c r="H56" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="I56" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
-      <c r="K56" s="37" t="s">
-        <v>56</v>
+      <c r="K56" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -4204,21 +4193,21 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4239,27 +4228,27 @@
       <c r="A58" s="6"/>
       <c r="B58" s="34"/>
       <c r="C58" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="D58" s="29" t="s">
-        <v>58</v>
+      <c r="D58" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H58" s="39" t="s">
+      <c r="G58" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="H58" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="39" t="s">
+      <c r="I58" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="J58" s="36" t="s">
         <v>63</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -4308,14 +4297,14 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -4339,31 +4328,31 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="C61" s="26" t="s">
         <v>43</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="24" t="s">
+      <c r="G61" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I61" s="24" t="s">
-        <v>20</v>
+      <c r="H61" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="I61" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="24" t="s">
-        <v>43</v>
+      <c r="J61" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -4383,31 +4372,31 @@
     </row>
     <row r="62" ht="36.75" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="25" t="s">
-        <v>65</v>
+      <c r="B62" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="41" t="s">
+      <c r="G62" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="41" t="s">
+      <c r="H62" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J62" s="41" t="s">
+      <c r="I62" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="K62" s="42" t="s">
+      <c r="J62" s="38" t="s">
         <v>71</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -4428,21 +4417,21 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4461,31 +4450,31 @@
     </row>
     <row r="64" ht="35.25" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="25" t="s">
-        <v>73</v>
+      <c r="B64" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="45" t="s">
-        <v>67</v>
+      <c r="G64" s="42" t="s">
+        <v>68</v>
       </c>
-      <c r="H64" s="46" t="s">
-        <v>75</v>
+      <c r="H64" s="43" t="s">
+        <v>76</v>
       </c>
-      <c r="I64" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" s="46" t="s">
+      <c r="I64" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="K64" s="47" t="s">
-        <v>76</v>
+      <c r="J64" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="44" t="s">
+        <v>77</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -4534,14 +4523,14 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -4565,31 +4554,31 @@
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="24" t="s">
+      <c r="B67" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="C67" s="26" t="s">
         <v>43</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="24" t="s">
+      <c r="G67" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I67" s="24" t="s">
-        <v>20</v>
+      <c r="H67" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="I67" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K67" s="24" t="s">
-        <v>43</v>
+      <c r="J67" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -4609,22 +4598,22 @@
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="48" t="s">
-        <v>79</v>
+      <c r="B68" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4643,29 +4632,29 @@
     </row>
     <row r="69" ht="67.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50" t="s">
-        <v>81</v>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46" t="s">
+        <v>82</v>
       </c>
-      <c r="D69" s="51" t="s">
-        <v>82</v>
+      <c r="D69" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="39" t="s">
+      <c r="G69" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="H69" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="J69" s="39" t="s">
+      <c r="I69" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="J69" s="36" t="s">
         <v>87</v>
+      </c>
+      <c r="K69" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4685,22 +4674,22 @@
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="48" t="s">
-        <v>88</v>
+      <c r="B70" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4721,27 +4710,27 @@
       <c r="A71" s="6"/>
       <c r="B71" s="34"/>
       <c r="C71" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="D71" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="54"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="39" t="s">
+      <c r="D71" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="E71" s="49"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="H71" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J71" s="39" t="s">
+      <c r="I71" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K71" s="52" t="s">
+      <c r="J71" s="36" t="s">
         <v>94</v>
+      </c>
+      <c r="K71" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -4761,22 +4750,22 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="48" t="s">
-        <v>95</v>
+      <c r="B72" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4795,29 +4784,29 @@
     </row>
     <row r="73" ht="55.5" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="49"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="D73" s="53" t="s">
-        <v>96</v>
+      <c r="D73" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I73" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J73" s="39" t="s">
-        <v>70</v>
+      <c r="H73" s="36" t="s">
+        <v>96</v>
       </c>
-      <c r="K73" s="52" t="s">
+      <c r="I73" s="36" t="s">
         <v>99</v>
+      </c>
+      <c r="J73" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K73" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -4837,22 +4826,22 @@
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="48" t="s">
-        <v>100</v>
+      <c r="B74" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -4870,30 +4859,30 @@
       <c r="Z74" s="6"/>
     </row>
     <row r="75" ht="66.0" customHeight="1">
-      <c r="A75" s="55"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="34"/>
       <c r="C75" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="D75" s="53" t="s">
-        <v>101</v>
+      <c r="D75" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I75" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J75" s="39" t="s">
-        <v>102</v>
+      <c r="H75" s="36" t="s">
+        <v>96</v>
       </c>
-      <c r="K75" s="52" t="s">
+      <c r="I75" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J75" s="36" t="s">
         <v>103</v>
+      </c>
+      <c r="K75" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -4913,22 +4902,22 @@
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="48" t="s">
-        <v>104</v>
+      <c r="B76" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4946,30 +4935,30 @@
       <c r="Z76" s="6"/>
     </row>
     <row r="77" ht="100.5" customHeight="1">
-      <c r="A77" s="55"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="34"/>
       <c r="C77" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="D77" s="53" t="s">
-        <v>105</v>
+      <c r="D77" s="47" t="s">
+        <v>106</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H77" s="37" t="s">
+      <c r="G77" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="H77" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J77" s="39" t="s">
+      <c r="I77" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K77" s="52" t="s">
+      <c r="J77" s="36" t="s">
         <v>110</v>
+      </c>
+      <c r="K77" s="48" t="s">
+        <v>111</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -4988,23 +4977,23 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78" ht="59.25" customHeight="1">
-      <c r="A78" s="55"/>
-      <c r="B78" s="56" t="s">
-        <v>111</v>
+      <c r="A78" s="50"/>
+      <c r="B78" s="51" t="s">
+        <v>112</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
-      <c r="D78" s="29" t="s">
-        <v>112</v>
+      <c r="D78" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -5028,11 +5017,11 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -30812,20 +30801,20 @@
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B68:B69"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B55:B56"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B32:H34"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B32:H34"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30864,13 +30853,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -30904,21 +30893,25 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="58">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="11">
         <v>45047.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="13">
+        <v>45129.0</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -30935,225 +30928,225 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="59" t="s">
-        <v>113</v>
+      <c r="B4" s="53" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="D5" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>1.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <v>2.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="D7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" ht="60.75" customHeight="1">
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>3.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" ht="18.75" customHeight="1"/>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="59" t="s">
-        <v>115</v>
+      <c r="B10" s="53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1"/>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="62" t="s">
+      <c r="B12" s="53" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="53" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="14" ht="18.75" customHeight="1"/>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="C16" s="62" t="s">
+      <c r="B15" s="53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="C16" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="65" t="s">
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="66" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="C20" s="65" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57" t="s">
         <v>123</v>
       </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="C20" s="57" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" ht="18.75" customHeight="1"/>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="62" t="s">
-        <v>124</v>
+      <c r="B22" s="58" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1"/>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="62" t="s">
-        <v>125</v>
+      <c r="B24" s="53" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1"/>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="62" t="s">
-        <v>126</v>
+      <c r="B26" s="53" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1"/>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="62" t="s">
-        <v>127</v>
+      <c r="B28" s="53" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1"/>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="62" t="s">
+      <c r="B30" s="53" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="B31" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="32" ht="18.75" customHeight="1"/>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="62" t="s">
-        <v>130</v>
+      <c r="B33" s="53" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="B34" s="62" t="s">
-        <v>131</v>
+      <c r="B34" s="53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1"/>
